--- a/trunk/doc/Rule IQArena.xlsx
+++ b/trunk/doc/Rule IQArena.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-345" yWindow="1140" windowWidth="20400" windowHeight="7995"/>
+    <workbookView xWindow="-345" yWindow="1200" windowWidth="20400" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">Mô tả </t>
   </si>
@@ -201,6 +201,30 @@
   </si>
   <si>
     <t>Nếu người chơi đạt combo x 5 sẽ được thưởng điểm</t>
+  </si>
+  <si>
+    <t>Yêu cầu kết bạn</t>
+  </si>
+  <si>
+    <t>Xem danh sách bạn bè</t>
+  </si>
+  <si>
+    <t>Xem thông tin bạn bè</t>
+  </si>
+  <si>
+    <t>Tán ngẫu với bạn</t>
+  </si>
+  <si>
+    <t>Phản hồi yêu cầu kết bạn</t>
+  </si>
+  <si>
+    <t>Kết bạn và giao lưu (*)</t>
+  </si>
+  <si>
+    <t>Xem các yêu cầu đang gửi</t>
+  </si>
+  <si>
+    <t>Xóa bạn bè</t>
   </si>
 </sst>
 </file>
@@ -267,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -325,11 +349,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -364,25 +432,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -696,8 +776,8 @@
   </sheetPr>
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -748,28 +828,28 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="19"/>
     </row>
     <row r="7" spans="1:2" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="22"/>
     </row>
     <row r="8" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="22"/>
     </row>
     <row r="9" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="21"/>
     </row>
     <row r="10" spans="1:2" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
@@ -788,10 +868,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="21"/>
     </row>
     <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -810,18 +890,18 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="19"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
@@ -847,13 +927,59 @@
         <v>25</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="15"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A20:B21"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A6:B6"/>

--- a/trunk/doc/Rule IQArena.xlsx
+++ b/trunk/doc/Rule IQArena.xlsx
@@ -197,12 +197,6 @@
     <t>Chợ và vật phẩm (*)</t>
   </si>
   <si>
-    <t>Combo x X</t>
-  </si>
-  <si>
-    <t>Nếu người chơi đạt combo x 5 sẽ được thưởng điểm</t>
-  </si>
-  <si>
     <t>Yêu cầu kết bạn</t>
   </si>
   <si>
@@ -225,6 +219,12 @@
   </si>
   <si>
     <t>Xóa bạn bè</t>
+  </si>
+  <si>
+    <t>Combo</t>
+  </si>
+  <si>
+    <t>Combo là số câu trả lời đúng liên tiếp của người chơ. Nếu người chơi đạt combo x 5 sẽ được thưởng điểm</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -436,6 +436,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -774,16 +777,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="126" style="1" customWidth="1"/>
+    <col min="2" max="2" width="115.75" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -819,7 +822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -828,28 +831,28 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="20"/>
     </row>
     <row r="7" spans="1:2" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="23"/>
     </row>
     <row r="8" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="23"/>
     </row>
     <row r="9" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="22"/>
     </row>
     <row r="10" spans="1:2" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
@@ -868,10 +871,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="22"/>
     </row>
     <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -891,17 +894,17 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="20"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
@@ -928,54 +931,90 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="16"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="15"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="B28" s="14"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="B35" s="14"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -988,7 +1027,7 @@
     <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/doc/Rule IQArena.xlsx
+++ b/trunk/doc/Rule IQArena.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">Mô tả </t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Bonus (*)</t>
-  </si>
-  <si>
-    <t>(*): bổ xung</t>
   </si>
   <si>
     <t>Sưu tầm mảnh ghép</t>
@@ -225,6 +222,51 @@
   </si>
   <si>
     <t>Combo là số câu trả lời đúng liên tiếp của người chơ. Nếu người chơi đạt combo x 5 sẽ được thưởng điểm</t>
+  </si>
+  <si>
+    <t>Phần quản lý cho admin (giao diện Web)</t>
+  </si>
+  <si>
+    <t>Phần upload câu hỏi cho user (gồm cả web và di động)</t>
+  </si>
+  <si>
+    <t>Main Menu</t>
+  </si>
+  <si>
+    <t>Singer Player</t>
+  </si>
+  <si>
+    <t>Multi Player</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>Second Menu</t>
+  </si>
+  <si>
+    <t>Các chức năng của chương trình (tạo giao diện giống ribbon trên market)</t>
+  </si>
+  <si>
+    <t>Test: toiec, đại học, test về các lĩnh vực khác như đố vui dân gian, danh nhân, quốc gia, …</t>
+  </si>
+  <si>
+    <t>Download câu hỏi</t>
+  </si>
+  <si>
+    <t>Đăng kí, đăng nhập, chọn room, market, tạo room.</t>
+  </si>
+  <si>
+    <t>Cấu hình âm thanh, giao diện,</t>
+  </si>
+  <si>
+    <t>info, guide, gửi câu hỏi đến chương trình</t>
   </si>
 </sst>
 </file>
@@ -397,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -441,6 +483,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -467,6 +515,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,10 +828,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -806,7 +857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -831,35 +882,35 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="22"/>
     </row>
     <row r="7" spans="1:2" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="23"/>
+      <c r="A7" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="25"/>
     </row>
     <row r="8" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="23"/>
+      <c r="A8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="25"/>
     </row>
     <row r="9" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="24"/>
     </row>
     <row r="10" spans="1:2" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -867,118 +918,118 @@
         <v>13</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="24"/>
     </row>
     <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="16" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="20"/>
+      <c r="A16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="22"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="16"/>
+      <c r="A20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="18"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="14"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="14"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="14"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="14"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="14"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="14"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="14"/>
     </row>
@@ -987,44 +1038,122 @@
       <c r="B29" s="14"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="18"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+    </row>
+    <row r="32" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+    </row>
+    <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="14"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="18"/>
+    </row>
+    <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+    </row>
+    <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="18"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A12:B12"/>
+  <mergeCells count="10">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="landscape" r:id="rId1"/>
